--- a/biology/Zoologie/Symplecta_gracilis/Symplecta_gracilis.xlsx
+++ b/biology/Zoologie/Symplecta_gracilis/Symplecta_gracilis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Symplecta (Psiloconopa) gracilis, Ilisia gracilis
 Symplecta (Psiloconopa) gracilis est une espèce fossile d'insectes diptères de la famille des Limoniidae et du genre Symplecta.
@@ -512,15 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Ilisia gracilis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse[1]. 
-Fossiles
-L'holotype A.1004, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), fait partie de la collection personnelle de Nicolas Théobald[note 1] et vient du gypse d'Aix-en-Provence.
-Renommage
-L'espèce s'appelle aussi, depuis 1994 et selon l'entomologiste américain Neal Luit Evenhuis (1952-), Symplecta (Psiloconopa) gracilis Théobald 1937 selon Fossilworks[1],[2].
-Étymologie
-L'épithète spécifique latine gracilis signifie « mince ».
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Ilisia gracilis est décrite en 1937 par le paléontologue français Nicolas Théobald (1903-1981) dans sa thèse. 
 </t>
         </is>
       </c>
@@ -546,18 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[3],[note 2] : 
-« Insecte de petite taille, grêle, brun noirâtre, ailes claires. Tête mal conservée, montre encore un œil à facettes de chaque côté, un fragment d'antennes pluriarticulées, homonomes. Thorax ovale subcylindrique. Abdomen allongé, cylindrique, étiré en pointe à l'extrémité ; segmentation peu visible. Pattes grêles, finement velues, cuisses allongées jaunâtres; tibias allongés, jaunes avec extrémité noire sans éperons; tarses grêles, le 1er article très long, le 5e porte deux griffes. ailes claires à nervures brunes. Sur l'échantillon les ailes ont repliées; la nervation déchiffrée donne la figure suivante (v fig 9a de la pl. XXIII)[3]. »
-Dimensions
-La longueur totale est de 5,5 mm ; la tête a une longueur de 0,5 mm ; le thorax a une longueur de 1 mm ; l'abdomen a une longueur de 4 mm ; les ailes ont une longueur de 5,5 mm[3].
-Affinités
-Nicolas Théobald était certain de l'appartenance de l'insecte à la tribu des Eriopterini. Par ses ailes non velues et leur nervation, il semblait faire partie du genre Ilisia[4]. N. L. Evenhuis l'a reclassé dans le genre Symplecta.
+          <t>Fossiles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype A.1004, de l'ère Cénozoïque et de l'époque Oligocène (33,9 à 23,03 Ma), fait partie de la collection personnelle de Nicolas Théobald[note 1] et vient du gypse d'Aix-en-Provence.
 </t>
         </is>
       </c>
@@ -583,12 +591,200 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Renommage</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce s'appelle aussi, depuis 1994 et selon l'entomologiste américain Neal Luit Evenhuis (1952-), Symplecta (Psiloconopa) gracilis Théobald 1937 selon Fossilworks,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique latine gracilis signifie « mince ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La diagnose de Nicolas Théobald en 1937,[note 2] : 
+« Insecte de petite taille, grêle, brun noirâtre, ailes claires. Tête mal conservée, montre encore un œil à facettes de chaque côté, un fragment d'antennes pluriarticulées, homonomes. Thorax ovale subcylindrique. Abdomen allongé, cylindrique, étiré en pointe à l'extrémité ; segmentation peu visible. Pattes grêles, finement velues, cuisses allongées jaunâtres; tibias allongés, jaunes avec extrémité noire sans éperons; tarses grêles, le 1er article très long, le 5e porte deux griffes. ailes claires à nervures brunes. Sur l'échantillon les ailes ont repliées; la nervation déchiffrée donne la figure suivante (v fig 9a de la pl. XXIII). »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 5,5 mm ; la tête a une longueur de 0,5 mm ; le thorax a une longueur de 1 mm ; l'abdomen a une longueur de 4 mm ; les ailes ont une longueur de 5,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nicolas Théobald était certain de l'appartenance de l'insecte à la tribu des Eriopterini. Par ses ailes non velues et leur nervation, il semblait faire partie du genre Ilisia. N. L. Evenhuis l'a reclassé dans le genre Symplecta.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Symplecta_gracilis</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ces petits insectes se rencontrent dans des lieux marécageux, surtout dans les bois humides. Les larves semblent vivre des végétaux en décomposition [4].
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces petits insectes se rencontrent dans des lieux marécageux, surtout dans les bois humides. Les larves semblent vivre des végétaux en décomposition .
 </t>
         </is>
       </c>
